--- a/target/test-classes/excel/testdata.xlsx
+++ b/target/test-classes/excel/testdata.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\seleniumworkspaces\LiveProjects\PageObjectwithFactories\src\test\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SaurabhM84/Pragya Automation Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E268D87-BC26-AC42-818A-60296922E1B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17205" windowHeight="5370"/>
+    <workbookView xWindow="80" yWindow="100" windowWidth="25440" windowHeight="15360" xr2:uid="{4E57BBF5-FC70-8744-B207-F1A695D93519}"/>
   </bookViews>
   <sheets>
-    <sheet name="SignInTest" sheetId="1" r:id="rId1"/>
-    <sheet name="FlightSearchTest" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>runmode</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>username</t>
   </si>
@@ -39,61 +33,29 @@
     <t>password</t>
   </si>
   <si>
-    <t>trainer@way2automation.com</t>
-  </si>
-  <si>
-    <t>Selenium@123</t>
-  </si>
-  <si>
-    <t>java@way2automation.com</t>
-  </si>
-  <si>
-    <t>Delhi, India (DEL-Indira Gandhi Intl.)</t>
-  </si>
-  <si>
-    <t>fromCity</t>
-  </si>
-  <si>
-    <t>toCity</t>
-  </si>
-  <si>
-    <t>Seattle, WA, United States (SEA-Seattle - Tacoma Intl.)</t>
-  </si>
-  <si>
-    <t>fromDate</t>
-  </si>
-  <si>
-    <t>toDate</t>
-  </si>
-  <si>
-    <t>14/12/2017</t>
-  </si>
-  <si>
-    <t>noOfAdults</t>
-  </si>
-  <si>
-    <t>noOfChildern</t>
-  </si>
-  <si>
-    <t>N</t>
+    <t>username1</t>
+  </si>
+  <si>
+    <t>pssword</t>
+  </si>
+  <si>
+    <t>pragya</t>
+  </si>
+  <si>
+    <t>maheshwari</t>
+  </si>
+  <si>
+    <t>password_12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -116,17 +78,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -159,7 +117,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -171,7 +129,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -188,9 +146,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -218,14 +176,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -253,6 +228,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -404,116 +396,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC49D7F8-021F-614F-85AC-EB39A776EA4D}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="B3" r:id="rId4"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2">
-        <v>43081</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
